--- a/results/MLPClassifier.xlsx
+++ b/results/MLPClassifier.xlsx
@@ -493,108 +493,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('scaler', None),
-                ('selector',
-                 SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1',
-                                                     random_state=42))),
-                ('model',
-                 MLPClassifier(activation='tanh', alpha=1,
-                               hidden_layer_sizes=(10,),
-                               learning_rate_init=0.01, max_iter=1000,
-                               random_state=42))])</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>0.7715922028635502</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>{'selector': SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1', random_state=42)), 'scaler': None, 'model__solver': 'adam', 'model__learning_rate_init': 0.01, 'model__hidden_layer_sizes': (10,), 'model__alpha': 1, 'model__activation': 'tanh'}</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>0.7368421052631579</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>[0 1 0 1 1 1 1 1 0 0 1 0]</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>[1 1 1 1 1 1 1 1 1 1 1 1]</t>
-        </is>
-      </c>
-      <c r="G2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.7530812190274377</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.07971162678512349</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.5771068956940364</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.1225568100593886</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Pipeline(steps=[('scaler', None), ('selector', None),
-                ('model',
-                 MLPClassifier(activation='tanh', alpha=0.01,
-                               hidden_layer_sizes=(10,),
-                               learning_rate_init=0.0001, max_iter=1000,
-                               random_state=42, solver='sgd'))])</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0.752638146167558</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>{'selector': None, 'scaler': None, 'model__solver': 'sgd', 'model__learning_rate_init': 0.0001, 'model__hidden_layer_sizes': (10,), 'model__alpha': 0.01, 'model__activation': 'tanh'}</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>0.6250000000000001</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>[0 0 1 1 0 0 1 1 1 0 1 1]</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>[1 0 1 0 1 1 1 1 1 1 1 0]</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>10</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.7605722677755399</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.07587384333434964</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.587868187562279</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.1076127217560923</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Pipeline(steps=[('scaler', None),
-                ('selector',
-                 SelectFromModel(estimator=ExtraTreesClassifier(random_state=42))),
+          <t>Pipeline(steps=[('scaler', None), ('selector', 'passthrough'),
                 ('model',
                  MLPClassifier(activation='tanh', alpha=1e-05,
                                hidden_layer_sizes=(5, 10, 5),
@@ -602,20 +501,116 @@
                                random_state=42, solver='sgd'))])</t>
         </is>
       </c>
+      <c r="B2" t="n">
+        <v>0.6476190476190476</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>{'scaler': None, 'model__solver': 'sgd', 'model__learning_rate_init': 0.01, 'model__hidden_layer_sizes': (5, 10, 5), 'model__alpha': 1e-05, 'model__activation': 'tanh'}</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.5000000000000001</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>[1 0 0 1 0 0 1 1 0 1 0 0]</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>[1 1 1 0 1 1 1 1 1 1 1 1]</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.7399523809523809</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.03062183231262731</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.5441904761904762</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.07866228171909134</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Pipeline(steps=[('scaler', None), ('selector', 'passthrough'),
+                ('model',
+                 MLPClassifier(activation='tanh', alpha=0.01,
+                               hidden_layer_sizes=(10,),
+                               learning_rate_init=1e-05, max_iter=1000,
+                               random_state=42, solver='lbfgs'))])</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.638095238095238</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>{'scaler': None, 'model__solver': 'lbfgs', 'model__learning_rate_init': 1e-05, 'model__hidden_layer_sizes': (10,), 'model__alpha': 0.01, 'model__activation': 'tanh'}</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>[1 0 1 0 0 0 0 1 1 0 1 1]</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>[1 1 1 1 1 0 1 1 0 1 1 1]</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>10</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.7247380952380954</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.03259983005491219</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.5303809523809524</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.06421710738702992</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Pipeline(steps=[('scaler', None), ('selector', 'passthrough'),
+                ('model',
+                 MLPClassifier(activation='tanh', alpha=0.01,
+                               hidden_layer_sizes=(5, 10, 5),
+                               learning_rate_init=0.01, max_iter=1000,
+                               random_state=42, solver='sgd'))])</t>
+        </is>
+      </c>
       <c r="B4" t="n">
-        <v>0.7567914438502674</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>{'selector': SelectFromModel(estimator=ExtraTreesClassifier(random_state=42)), 'scaler': None, 'model__solver': 'sgd', 'model__learning_rate_init': 0.01, 'model__hidden_layer_sizes': (5, 10, 5), 'model__alpha': 1e-05, 'model__activation': 'tanh'}</t>
+          <t>{'scaler': None, 'model__solver': 'sgd', 'model__learning_rate_init': 0.01, 'model__hidden_layer_sizes': (5, 10, 5), 'model__alpha': 0.01, 'model__activation': 'tanh'}</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.7368421052631579</v>
+        <v>0.8</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[1 0 0 0 1 0 1 0 1 1 1 1]</t>
+          <t>[1 0 1 1 1 1 0 1 0 1 0 1]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -627,16 +622,16 @@
         <v>42</v>
       </c>
       <c r="H4" t="n">
-        <v>0.7323877574640359</v>
+        <v>0.7310238095238095</v>
       </c>
       <c r="I4" t="n">
-        <v>0.08172785973321883</v>
+        <v>0.02514326533843337</v>
       </c>
       <c r="J4" t="n">
-        <v>0.5750319622834943</v>
+        <v>0.5281904761904762</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1151178805380032</v>
+        <v>0.06704702718624295</v>
       </c>
     </row>
   </sheetData>

--- a/results/MLPClassifier.xlsx
+++ b/results/MLPClassifier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,145 +493,248 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('scaler', None), ('selector', 'passthrough'),
+          <t>Pipeline(steps=[('scaler', RobustScaler()),
+                ('selector',
+                 SelectFromModel(estimator=ExtraTreesClassifier(random_state=42))),
+                ('model',
+                 MLPClassifier(alpha=1, hidden_layer_sizes=(10,),
+                               learning_rate_init=0.01, max_iter=1000,
+                               random_state=42, solver='sgd'))])</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.6761904761904762</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>{'selector': SelectFromModel(estimator=ExtraTreesClassifier(random_state=42)), 'scaler': RobustScaler(), 'model__solver': 'sgd', 'model__learning_rate_init': 0.01, 'model__hidden_layer_sizes': (10,), 'model__alpha': 1, 'model__activation': 'relu'}</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>[1 1 0 0 1 0 0 0 0 1 0 1]</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>[0 0 1 1 0 1 1 0 1 0 1 1]</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>77</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.7221207087486158</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.03945522122388282</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.5547065337763012</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.07818516010006489</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Pipeline(steps=[('scaler', StandardScaler()),
+                ('selector',
+                 SelectFromModel(estimator=ExtraTreesClassifier(random_state=42))),
+                ('model',
+                 MLPClassifier(activation='tanh', alpha=0.01,
+                               hidden_layer_sizes=(10,),
+                               learning_rate_init=0.0001, max_iter=1000,
+                               random_state=42, solver='sgd'))])</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.6380952380952382</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>{'selector': SelectFromModel(estimator=ExtraTreesClassifier(random_state=42)), 'scaler': StandardScaler(), 'model__solver': 'sgd', 'model__learning_rate_init': 0.0001, 'model__hidden_layer_sizes': (10,), 'model__alpha': 0.01, 'model__activation': 'tanh'}</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.7999999999999999</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>[1 1 0 1 0 0 1 0 1 1 1 0]</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>[1 1 0 1 0 1 0 1 1 1 1 0]</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>69</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.7252725186460126</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.04069783648809968</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.5287435456110154</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.07713770913083769</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Pipeline(steps=[('scaler', None), ('selector', None),
                 ('model',
                  MLPClassifier(activation='tanh', alpha=1e-05,
                                hidden_layer_sizes=(5, 10, 5),
-                               learning_rate_init=0.01, max_iter=1000,
-                               random_state=42, solver='sgd'))])</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>0.6476190476190476</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>{'scaler': None, 'model__solver': 'sgd', 'model__learning_rate_init': 0.01, 'model__hidden_layer_sizes': (5, 10, 5), 'model__alpha': 1e-05, 'model__activation': 'tanh'}</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>0.5000000000000001</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>[1 0 0 1 0 0 1 1 0 1 0 0]</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>[1 1 1 0 1 1 1 1 1 1 1 1]</t>
-        </is>
-      </c>
-      <c r="G2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.7399523809523809</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.03062183231262731</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.5441904761904762</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.07866228171909134</v>
+                               learning_rate_init=0.0001, max_iter=1000,
+                               random_state=42))])</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>{'selector': None, 'scaler': None, 'model__solver': 'adam', 'model__learning_rate_init': 0.0001, 'model__hidden_layer_sizes': (5, 10, 5), 'model__alpha': 1e-05, 'model__activation': 'tanh'}</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>[1 0 1 1 1 1 0 1 0 1 0 1]</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>[1 1 1 1 1 1 1 1 1 1 1 1]</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>42</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.7501904761904762</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.04546878142271138</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.528126984126984</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.07809923984026701</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Pipeline(steps=[('scaler', None), ('selector', 'passthrough'),
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Pipeline(steps=[('scaler', None),
+                ('selector',
+                 SelectFromModel(estimator=ExtraTreesClassifier(random_state=42))),
                 ('model',
-                 MLPClassifier(activation='tanh', alpha=0.01,
-                               hidden_layer_sizes=(10,),
-                               learning_rate_init=1e-05, max_iter=1000,
+                 MLPClassifier(alpha=0.01, hidden_layer_sizes=(5, 10, 5),
+                               learning_rate_init=0.0001, max_iter=1000,
                                random_state=42, solver='lbfgs'))])</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>0.638095238095238</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>{'scaler': None, 'model__solver': 'lbfgs', 'model__learning_rate_init': 1e-05, 'model__hidden_layer_sizes': (10,), 'model__alpha': 0.01, 'model__activation': 'tanh'}</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>[1 0 1 0 0 0 0 1 1 0 1 1]</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>[1 1 1 1 1 0 1 1 0 1 1 1]</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>10</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.7247380952380954</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.03259983005491219</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.5303809523809524</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.06421710738702992</v>
+      <c r="B5" t="n">
+        <v>0.6380952380952382</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>{'selector': SelectFromModel(estimator=ExtraTreesClassifier(random_state=42)), 'scaler': None, 'model__solver': 'lbfgs', 'model__learning_rate_init': 0.0001, 'model__hidden_layer_sizes': (5, 10, 5), 'model__alpha': 0.01, 'model__activation': 'relu'}</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8235294117647058</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>[1 1 0 0 0 0 1 0 1 1 1 1]</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>[1 1 1 1 0 1 1 0 1 1 1 1]</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>11</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.739342403628118</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.04613195158323608</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.5060090702947846</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.08697345844275788</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Pipeline(steps=[('scaler', None), ('selector', 'passthrough'),
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Pipeline(steps=[('scaler', None),
+                ('selector',
+                 SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1',
+                                                     random_state=42))),
                 ('model',
                  MLPClassifier(activation='tanh', alpha=0.01,
                                hidden_layer_sizes=(5, 10, 5),
-                               learning_rate_init=0.01, max_iter=1000,
-                               random_state=42, solver='sgd'))])</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0.6190476190476191</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>{'scaler': None, 'model__solver': 'sgd', 'model__learning_rate_init': 0.01, 'model__hidden_layer_sizes': (5, 10, 5), 'model__alpha': 0.01, 'model__activation': 'tanh'}</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>[1 0 1 1 1 1 0 1 0 1 0 1]</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>[1 1 1 1 1 1 1 1 1 1 1 1]</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>42</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.7310238095238095</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.02514326533843337</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.5281904761904762</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.06704702718624295</v>
+                               learning_rate_init=0.0001, max_iter=1000,
+                               random_state=42))])</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.6285714285714287</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>{'selector': SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1', random_state=42)), 'scaler': None, 'model__solver': 'adam', 'model__learning_rate_init': 0.0001, 'model__hidden_layer_sizes': (5, 10, 5), 'model__alpha': 0.01, 'model__activation': 'tanh'}</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.4615384615384615</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>[1 1 1 1 0 0 0 0 1 1 0 0]</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>[1 1 0 0 0 1 1 1 1 0 1 0]</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>14</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.7285420340975897</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.04375204601354599</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.5490887713109934</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.07445945632576788</v>
       </c>
     </row>
   </sheetData>

--- a/results/MLPClassifier.xlsx
+++ b/results/MLPClassifier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,50 +493,49 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('scaler', RobustScaler()),
-                ('selector',
-                 SelectFromModel(estimator=ExtraTreesClassifier(random_state=42))),
+          <t>Pipeline(steps=[('scaler', None), ('selector', None),
                 ('model',
-                 MLPClassifier(alpha=1, hidden_layer_sizes=(10,),
-                               learning_rate_init=0.01, max_iter=1000,
-                               random_state=42, solver='sgd'))])</t>
+                 MLPClassifier(activation='tanh', alpha=1e-05,
+                               hidden_layer_sizes=(10,),
+                               learning_rate_init=0.0001, max_iter=1000,
+                               random_state=42))])</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6761904761904762</v>
+        <v>0.7337815126050419</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>{'selector': SelectFromModel(estimator=ExtraTreesClassifier(random_state=42)), 'scaler': RobustScaler(), 'model__solver': 'sgd', 'model__learning_rate_init': 0.01, 'model__hidden_layer_sizes': (10,), 'model__alpha': 1, 'model__activation': 'relu'}</t>
+          <t>{'selector': None, 'scaler': None, 'model__solver': 'adam', 'model__learning_rate_init': 0.0001, 'model__hidden_layer_sizes': (10,), 'model__alpha': 1e-05, 'model__activation': 'tanh'}</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.8421052631578948</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[1 1 0 0 1 0 0 0 0 1 0 1]</t>
+          <t>[1 0 1 1 1 1 0 1 0 1 0 1]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[0 0 1 1 0 1 1 0 1 0 1 1]</t>
+          <t>[1 0 1 1 1 1 1 1 1 1 1 1]</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="H2" t="n">
-        <v>0.7221207087486158</v>
+        <v>0.7469219524844583</v>
       </c>
       <c r="I2" t="n">
-        <v>0.03945522122388282</v>
+        <v>0.07961526740923477</v>
       </c>
       <c r="J2" t="n">
-        <v>0.5547065337763012</v>
+        <v>0.508945414389532</v>
       </c>
       <c r="K2" t="n">
-        <v>0.07818516010006489</v>
+        <v>0.1521667523257761</v>
       </c>
     </row>
     <row r="3">
@@ -546,22 +545,21 @@
                 ('selector',
                  SelectFromModel(estimator=ExtraTreesClassifier(random_state=42))),
                 ('model',
-                 MLPClassifier(activation='tanh', alpha=0.01,
-                               hidden_layer_sizes=(10,),
-                               learning_rate_init=0.0001, max_iter=1000,
-                               random_state=42, solver='sgd'))])</t>
+                 MLPClassifier(alpha=0.01, hidden_layer_sizes=(10, 10, 10),
+                               learning_rate_init=1, max_iter=1000,
+                               random_state=42))])</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.6380952380952382</v>
+        <v>0.7058823529411764</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>{'selector': SelectFromModel(estimator=ExtraTreesClassifier(random_state=42)), 'scaler': StandardScaler(), 'model__solver': 'sgd', 'model__learning_rate_init': 0.0001, 'model__hidden_layer_sizes': (10,), 'model__alpha': 0.01, 'model__activation': 'tanh'}</t>
+          <t>{'selector': SelectFromModel(estimator=ExtraTreesClassifier(random_state=42)), 'scaler': StandardScaler(), 'model__solver': 'adam', 'model__learning_rate_init': 1, 'model__hidden_layer_sizes': (10, 10, 10), 'model__alpha': 0.01, 'model__activation': 'relu'}</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.7999999999999999</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -570,171 +568,120 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[1 1 0 1 0 1 0 1 1 1 1 0]</t>
+          <t>[1 1 1 1 1 1 1 1 1 1 1 1]</t>
         </is>
       </c>
       <c r="G3" t="n">
         <v>69</v>
       </c>
       <c r="H3" t="n">
-        <v>0.7252725186460126</v>
+        <v>0.7417383659641937</v>
       </c>
       <c r="I3" t="n">
-        <v>0.04069783648809968</v>
+        <v>0.06935940419964512</v>
       </c>
       <c r="J3" t="n">
-        <v>0.5287435456110154</v>
+        <v>0.563990486147839</v>
       </c>
       <c r="K3" t="n">
-        <v>0.07713770913083769</v>
+        <v>0.1323926079241753</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
+        <is>
+          <t>Pipeline(steps=[('scaler', StandardScaler()),
+                ('selector',
+                 &lt;__main__.NamedFeatureSelector object at 0x7fcd831946d0&gt;),
+                ('model',
+                 MLPClassifier(alpha=1, hidden_layer_sizes=(10,),
+                               learning_rate_init=0.01, max_iter=1000,
+                               random_state=42, solver='lbfgs'))])</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.7366025641025641</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7fcd83398c10&gt;, 'scaler': StandardScaler(), 'model__solver': 'lbfgs', 'model__learning_rate_init': 0.01, 'model__hidden_layer_sizes': (10,), 'model__alpha': 1, 'model__activation': 'relu'}</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.6153846153846154</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>[0 1 0 0 1 1 1 1 1 1 1 0]</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>[0 1 1 0 0 1 0 1 1 0 0 0]</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>23</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.6978529930018343</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.08714081140531564</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.544660476125182</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.1530220879496654</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
         <is>
           <t>Pipeline(steps=[('scaler', None), ('selector', None),
                 ('model',
                  MLPClassifier(activation='tanh', alpha=1e-05,
                                hidden_layer_sizes=(5, 10, 5),
                                learning_rate_init=0.0001, max_iter=1000,
-                               random_state=42))])</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>{'selector': None, 'scaler': None, 'model__solver': 'adam', 'model__learning_rate_init': 0.0001, 'model__hidden_layer_sizes': (5, 10, 5), 'model__alpha': 1e-05, 'model__activation': 'tanh'}</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>[1 0 1 1 1 1 0 1 0 1 0 1]</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
+                               random_state=42, solver='sgd'))])</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.8076307189542484</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>{'selector': None, 'scaler': None, 'model__solver': 'sgd', 'model__learning_rate_init': 0.0001, 'model__hidden_layer_sizes': (5, 10, 5), 'model__alpha': 1e-05, 'model__activation': 'tanh'}</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.5882352941176471</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>[0 1 1 0 0 1 0 0 0 0 1 1]</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
         <is>
           <t>[1 1 1 1 1 1 1 1 1 1 1 1]</t>
         </is>
       </c>
-      <c r="G4" t="n">
-        <v>42</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.7501904761904762</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.04546878142271138</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.528126984126984</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.07809923984026701</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Pipeline(steps=[('scaler', None),
-                ('selector',
-                 SelectFromModel(estimator=ExtraTreesClassifier(random_state=42))),
-                ('model',
-                 MLPClassifier(alpha=0.01, hidden_layer_sizes=(5, 10, 5),
-                               learning_rate_init=0.0001, max_iter=1000,
-                               random_state=42, solver='lbfgs'))])</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0.6380952380952382</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>{'selector': SelectFromModel(estimator=ExtraTreesClassifier(random_state=42)), 'scaler': None, 'model__solver': 'lbfgs', 'model__learning_rate_init': 0.0001, 'model__hidden_layer_sizes': (5, 10, 5), 'model__alpha': 0.01, 'model__activation': 'relu'}</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>0.8235294117647058</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>[1 1 0 0 0 0 1 0 1 1 1 1]</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>[1 1 1 1 0 1 1 0 1 1 1 1]</t>
-        </is>
-      </c>
       <c r="G5" t="n">
-        <v>11</v>
+        <v>99</v>
       </c>
       <c r="H5" t="n">
-        <v>0.739342403628118</v>
+        <v>0.7223617399674833</v>
       </c>
       <c r="I5" t="n">
-        <v>0.04613195158323608</v>
+        <v>0.06306267651385973</v>
       </c>
       <c r="J5" t="n">
-        <v>0.5060090702947846</v>
+        <v>0.5803870639164758</v>
       </c>
       <c r="K5" t="n">
-        <v>0.08697345844275788</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Pipeline(steps=[('scaler', None),
-                ('selector',
-                 SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1',
-                                                     random_state=42))),
-                ('model',
-                 MLPClassifier(activation='tanh', alpha=0.01,
-                               hidden_layer_sizes=(5, 10, 5),
-                               learning_rate_init=0.0001, max_iter=1000,
-                               random_state=42))])</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0.6285714285714287</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>{'selector': SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1', random_state=42)), 'scaler': None, 'model__solver': 'adam', 'model__learning_rate_init': 0.0001, 'model__hidden_layer_sizes': (5, 10, 5), 'model__alpha': 0.01, 'model__activation': 'tanh'}</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>0.4615384615384615</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>[1 1 1 1 0 0 0 0 1 1 0 0]</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>[1 1 0 0 0 1 1 1 1 0 1 0]</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>14</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.7285420340975897</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.04375204601354599</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.5490887713109934</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.07445945632576788</v>
+        <v>0.1363457492298013</v>
       </c>
     </row>
   </sheetData>

--- a/results/MLPClassifier.xlsx
+++ b/results/MLPClassifier.xlsx
@@ -592,7 +592,7 @@
         <is>
           <t>Pipeline(steps=[('scaler', StandardScaler()),
                 ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7fcd831946d0&gt;),
+                 &lt;__main__.NamedFeatureSelector object at 0x7f912416ad90&gt;),
                 ('model',
                  MLPClassifier(alpha=1, hidden_layer_sizes=(10,),
                                learning_rate_init=0.01, max_iter=1000,
@@ -604,7 +604,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7fcd83398c10&gt;, 'scaler': StandardScaler(), 'model__solver': 'lbfgs', 'model__learning_rate_init': 0.01, 'model__hidden_layer_sizes': (10,), 'model__alpha': 1, 'model__activation': 'relu'}</t>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f9124136400&gt;, 'scaler': StandardScaler(), 'model__solver': 'lbfgs', 'model__learning_rate_init': 0.01, 'model__hidden_layer_sizes': (10,), 'model__alpha': 1, 'model__activation': 'relu'}</t>
         </is>
       </c>
       <c r="D4" t="n">

--- a/results/MLPClassifier.xlsx
+++ b/results/MLPClassifier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,91 +451,124 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Validation Score</t>
+          <t>CV Train F1</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>CV Test F1</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Validation F1</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>CV Train Precision</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>CV Test Precision</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Validation Precision</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>CV Train Recall</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>CV Test Recall</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Validation Recall</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
           <t>Y Val (Validation)</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Y Pred (Validation)</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Seed</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>CV Train Mean</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>CV Train STD</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>CV Test Mean</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>CV Test STD</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('scaler', None), ('selector', None),
+          <t>Pipeline(steps=[('scaler', RobustScaler()),
+                ('selector',
+                 &lt;__main__.NamedFeatureSelector object at 0x7fcae07ddc40&gt;),
                 ('model',
-                 MLPClassifier(activation='tanh', alpha=1e-05,
-                               hidden_layer_sizes=(10,),
-                               learning_rate_init=0.0001, max_iter=1000,
-                               random_state=42))])</t>
+                 MLPClassifier(alpha=0.01, hidden_layer_sizes=(5, 10, 5),
+                               learning_rate_init=0.01, max_iter=1000,
+                               random_state=42, solver='sgd'))])</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7337815126050419</v>
+        <v>0.7583333333333334</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>{'selector': None, 'scaler': None, 'model__solver': 'adam', 'model__learning_rate_init': 0.0001, 'model__hidden_layer_sizes': (10,), 'model__alpha': 1e-05, 'model__activation': 'tanh'}</t>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7fcae068b520&gt;, 'scaler': RobustScaler(), 'model__solver': 'sgd', 'model__learning_rate_init': 0.01, 'model__hidden_layer_sizes': (5, 10, 5), 'model__alpha': 0.01, 'model__activation': 'relu'}</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.8421052631578948</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>[1 0 1 1 1 1 0 1 0 1 0 1]</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>[1 0 1 1 1 1 1 1 1 1 1 1]</t>
-        </is>
+        <v>0.7613530524931028</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.539953502053502</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.6808510638297872</v>
       </c>
       <c r="G2" t="n">
+        <v>0.7397803337473762</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.5259019841269841</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.8361666666666666</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.7272727272727273</v>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>[1 0 1 1 1 1 0 1 0 1 0 1 0 1 1 0 0 1 1 1 1 0 1 1 0 1 1 1 1 0 0 0 0 1 0 1]</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>[1 1 1 1 1 1 0 0 1 1 1 1 0 1 1 0 1 1 1 1 1 1 1 0 1 0 1 0 1 1 0 1 0 0 1 0]</t>
+        </is>
+      </c>
+      <c r="O2" t="n">
         <v>42</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.7469219524844583</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.07961526740923477</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.508945414389532</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.1521667523257761</v>
       </c>
     </row>
     <row r="3">
@@ -543,145 +576,242 @@
         <is>
           <t>Pipeline(steps=[('scaler', StandardScaler()),
                 ('selector',
-                 SelectFromModel(estimator=ExtraTreesClassifier(random_state=42))),
+                 &lt;__main__.NamedFeatureSelector object at 0x7fcae0771130&gt;),
                 ('model',
-                 MLPClassifier(alpha=0.01, hidden_layer_sizes=(10, 10, 10),
-                               learning_rate_init=1, max_iter=1000,
-                               random_state=42))])</t>
+                 MLPClassifier(hidden_layer_sizes=(10,),
+                               learning_rate_init=0.0001, max_iter=1000,
+                               random_state=42, solver='sgd'))])</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7058823529411764</v>
+        <v>0.7616666666666665</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>{'selector': SelectFromModel(estimator=ExtraTreesClassifier(random_state=42)), 'scaler': StandardScaler(), 'model__solver': 'adam', 'model__learning_rate_init': 1, 'model__hidden_layer_sizes': (10, 10, 10), 'model__alpha': 0.01, 'model__activation': 'relu'}</t>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7fcae06fa760&gt;, 'scaler': StandardScaler(), 'model__solver': 'sgd', 'model__learning_rate_init': 0.0001, 'model__hidden_layer_sizes': (10,), 'model__alpha': 0.0001, 'model__activation': 'relu'}</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.7368421052631579</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>[1 1 0 1 0 0 1 0 1 1 1 0]</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>[1 1 1 1 1 1 1 1 1 1 1 1]</t>
-        </is>
+        <v>0.6830092434038013</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.4929175990675991</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.5714285714285715</v>
       </c>
       <c r="G3" t="n">
+        <v>0.6809384903176624</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.473538492063492</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.9090909090909091</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.7336</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.5648000000000001</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.4166666666666667</v>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>[1 1 0 1 0 0 1 0 1 1 1 0 1 1 1 1 1 1 1 1 0 0 1 0 0 1 0 1 1 0 1 1 0 1 1 1]</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>[0 1 0 1 0 0 1 0 0 1 0 0 0 0 1 1 1 1 0 0 1 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0]</t>
+        </is>
+      </c>
+      <c r="O3" t="n">
         <v>69</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.7417383659641937</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.06935940419964512</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.563990486147839</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.1323926079241753</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('scaler', StandardScaler()),
-                ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7f912416ad90&gt;),
+          <t>Pipeline(steps=[('scaler', None), ('selector', None),
                 ('model',
-                 MLPClassifier(alpha=1, hidden_layer_sizes=(10,),
-                               learning_rate_init=0.01, max_iter=1000,
-                               random_state=42, solver='lbfgs'))])</t>
+                 MLPClassifier(hidden_layer_sizes=(10,),
+                               learning_rate_init=0.0001, max_iter=1000,
+                               random_state=42, solver='sgd'))])</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7366025641025641</v>
+        <v>0.65</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f9124136400&gt;, 'scaler': StandardScaler(), 'model__solver': 'lbfgs', 'model__learning_rate_init': 0.01, 'model__hidden_layer_sizes': (10,), 'model__alpha': 1, 'model__activation': 'relu'}</t>
+          <t>{'selector': None, 'scaler': None, 'model__solver': 'sgd', 'model__learning_rate_init': 0.0001, 'model__hidden_layer_sizes': (10,), 'model__alpha': 0.0001, 'model__activation': 'relu'}</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.6153846153846154</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>[0 1 0 0 1 1 1 1 1 1 1 0]</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>[0 1 1 0 0 1 0 1 1 0 0 0]</t>
-        </is>
+        <v>0.6769340840966684</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.4797899267399267</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.68</v>
       </c>
       <c r="G4" t="n">
+        <v>0.680551256026774</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.4754726190476191</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.7083333333333334</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.7335</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.5417999999999999</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.6538461538461539</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>[0 1 0 0 1 1 1 1 1 1 1 0 1 1 1 1 1 1 1 1 0 1 1 1 0 1 0 1 0 1 0 1 1 1 0 1]</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>[1 1 1 0 1 0 0 1 1 0 1 1 0 1 1 1 1 0 0 0 1 0 1 1 0 1 1 1 1 1 0 1 1 1 1 0]</t>
+        </is>
+      </c>
+      <c r="O4" t="n">
         <v>23</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.6978529930018343</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.08714081140531564</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.544660476125182</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.1530220879496654</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('scaler', None), ('selector', None),
+          <t>Pipeline(steps=[('scaler', MinMaxScaler()),
+                ('selector',
+                 &lt;__main__.NamedFeatureSelector object at 0x7fcae06faee0&gt;),
                 ('model',
-                 MLPClassifier(activation='tanh', alpha=1e-05,
-                               hidden_layer_sizes=(5, 10, 5),
+                 MLPClassifier(alpha=0.01, hidden_layer_sizes=(10,),
                                learning_rate_init=0.0001, max_iter=1000,
-                               random_state=42, solver='sgd'))])</t>
+                               random_state=42))])</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8076307189542484</v>
+        <v>0.755</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>{'selector': None, 'scaler': None, 'model__solver': 'sgd', 'model__learning_rate_init': 0.0001, 'model__hidden_layer_sizes': (5, 10, 5), 'model__alpha': 1e-05, 'model__activation': 'tanh'}</t>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7fcae0734220&gt;, 'scaler': MinMaxScaler(), 'model__solver': 'adam', 'model__learning_rate_init': 0.0001, 'model__hidden_layer_sizes': (10,), 'model__alpha': 0.01, 'model__activation': 'relu'}</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.5882352941176471</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>[0 1 1 0 0 1 0 0 0 0 1 1]</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>[1 1 1 1 1 1 1 1 1 1 1 1]</t>
-        </is>
+        <v>0.7112325252069099</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.5265204184704185</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.5161290322580644</v>
       </c>
       <c r="G5" t="n">
+        <v>0.6841738384872561</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.4935003968253968</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.7820238095238095</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.6136</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.3636363636363636</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>[0 1 1 0 0 1 0 0 0 0 1 1 1 0 0 1 1 0 1 1 1 1 1 1 1 1 0 0 1 0 1 1 1 1 1 0]</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>[0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 1 1 0 1 0 0 1 0 0 0 1 0 1 0 0]</t>
+        </is>
+      </c>
+      <c r="O5" t="n">
         <v>99</v>
       </c>
-      <c r="H5" t="n">
-        <v>0.7223617399674833</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.06306267651385973</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.5803870639164758</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.1363457492298013</v>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Pipeline(steps=[('scaler', None),
+                ('selector',
+                 SelectFromModel(estimator=ExtraTreesClassifier(random_state=42))),
+                ('model',
+                 MLPClassifier(activation='tanh', alpha=1,
+                               hidden_layer_sizes=(10, 10, 10),
+                               learning_rate_init=0.01, max_iter=1000,
+                               random_state=42))])</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.6905555555555555</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>{'selector': SelectFromModel(estimator=ExtraTreesClassifier(random_state=42)), 'scaler': None, 'model__solver': 'adam', 'model__learning_rate_init': 0.01, 'model__hidden_layer_sizes': (10, 10, 10), 'model__alpha': 1, 'model__activation': 'tanh'}</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.7377696114163557</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.5319615662115662</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.7223902597849026</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.4863769841269841</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.7934545454545452</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.6282</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>[1 0 1 1 0 0 0 0 1 0 1 1 0 1 1 0 1 0 0 0 0 0 1 1 1 0 1 0 1 1 1 1 1 1 1 0]</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>[1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1]</t>
+        </is>
+      </c>
+      <c r="O6" t="n">
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/results/MLPClassifier.xlsx
+++ b/results/MLPClassifier.xlsx
@@ -513,58 +513,57 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('scaler', RobustScaler()),
-                ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7fcae07ddc40&gt;),
+          <t>Pipeline(steps=[('scaler', None), ('selector', None),
                 ('model',
-                 MLPClassifier(alpha=0.01, hidden_layer_sizes=(5, 10, 5),
-                               learning_rate_init=0.01, max_iter=1000,
-                               random_state=42, solver='sgd'))])</t>
+                 MLPClassifier(activation='tanh', alpha=1e-05,
+                               hidden_layer_sizes=(5, 10, 5),
+                               learning_rate_init=0.0001, max_iter=1000,
+                               random_state=42))])</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7583333333333334</v>
+        <v>0.758095238095238</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7fcae068b520&gt;, 'scaler': RobustScaler(), 'model__solver': 'sgd', 'model__learning_rate_init': 0.01, 'model__hidden_layer_sizes': (5, 10, 5), 'model__alpha': 0.01, 'model__activation': 'relu'}</t>
+          <t>{'selector': None, 'scaler': None, 'model__solver': 'adam', 'model__learning_rate_init': 0.0001, 'model__hidden_layer_sizes': (5, 10, 5), 'model__alpha': 1e-05, 'model__activation': 'tanh'}</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.7613530524931028</v>
+        <v>0.7439022533136688</v>
       </c>
       <c r="E2" t="n">
-        <v>0.539953502053502</v>
+        <v>0.5466748640248641</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6808510638297872</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="G2" t="n">
-        <v>0.7397803337473762</v>
+        <v>0.727466508871099</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5259019841269841</v>
+        <v>0.5356468253968254</v>
       </c>
       <c r="I2" t="n">
-        <v>0.64</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="J2" t="n">
-        <v>0.8361666666666666</v>
+        <v>0.810936170212766</v>
       </c>
       <c r="K2" t="n">
-        <v>0.62</v>
+        <v>0.6096666666666666</v>
       </c>
       <c r="L2" t="n">
-        <v>0.7272727272727273</v>
+        <v>0.9375</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[1 0 1 1 1 1 0 1 0 1 0 1 0 1 1 0 0 1 1 1 1 0 1 1 0 1 1 1 1 0 0 0 0 1 0 1]</t>
+          <t>[1 0 1 1 1 1 0 1 0 1 0 1 0 1 1 0 0 1 1 1 1 0 1 1]</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>[1 1 1 1 1 1 0 0 1 1 1 1 0 1 1 0 1 1 1 1 1 1 1 0 1 0 1 0 1 1 0 1 0 0 1 0]</t>
+          <t>[1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 0]</t>
         </is>
       </c>
       <c r="O2" t="n">
@@ -574,58 +573,56 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('scaler', StandardScaler()),
-                ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7fcae0771130&gt;),
+          <t>Pipeline(steps=[('scaler', MinMaxScaler()), ('selector', None),
                 ('model',
                  MLPClassifier(hidden_layer_sizes=(10,),
-                               learning_rate_init=0.0001, max_iter=1000,
-                               random_state=42, solver='sgd'))])</t>
+                               learning_rate_init=1e-05, max_iter=1000,
+                               random_state=42))])</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7616666666666665</v>
+        <v>0.7538095238095237</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7fcae06fa760&gt;, 'scaler': StandardScaler(), 'model__solver': 'sgd', 'model__learning_rate_init': 0.0001, 'model__hidden_layer_sizes': (10,), 'model__alpha': 0.0001, 'model__activation': 'relu'}</t>
+          <t>{'selector': None, 'scaler': MinMaxScaler(), 'model__solver': 'adam', 'model__learning_rate_init': 1e-05, 'model__hidden_layer_sizes': (10,), 'model__alpha': 0.0001, 'model__activation': 'relu'}</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.6830092434038013</v>
+        <v>0.6999924646293084</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4929175990675991</v>
+        <v>0.5185700022200022</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5714285714285715</v>
+        <v>0.8</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6809384903176624</v>
+        <v>0.692439401571078</v>
       </c>
       <c r="H3" t="n">
-        <v>0.473538492063492</v>
+        <v>0.5339107142857142</v>
       </c>
       <c r="I3" t="n">
-        <v>0.9090909090909091</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7336</v>
+        <v>0.759404255319149</v>
       </c>
       <c r="K3" t="n">
-        <v>0.5648000000000001</v>
+        <v>0.5561666666666667</v>
       </c>
       <c r="L3" t="n">
-        <v>0.4166666666666667</v>
+        <v>1</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[1 1 0 1 0 0 1 0 1 1 1 0 1 1 1 1 1 1 1 1 0 0 1 0 0 1 0 1 1 0 1 1 0 1 1 1]</t>
+          <t>[1 1 0 1 0 0 1 0 1 1 1 0 1 1 1 1 1 1 1 1 0 0 1 0]</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>[0 1 0 1 0 0 1 0 0 1 0 0 0 0 1 1 1 1 0 0 1 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0]</t>
+          <t>[1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1]</t>
         </is>
       </c>
       <c r="O3" t="n">
@@ -635,56 +632,58 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('scaler', None), ('selector', None),
+          <t>Pipeline(steps=[('scaler', StandardScaler()),
+                ('selector',
+                 &lt;__main__.NamedFeatureSelector object at 0x7faa9f72b580&gt;),
                 ('model',
-                 MLPClassifier(hidden_layer_sizes=(10,),
-                               learning_rate_init=0.0001, max_iter=1000,
-                               random_state=42, solver='sgd'))])</t>
+                 MLPClassifier(alpha=1, hidden_layer_sizes=(10,),
+                               learning_rate_init=0.01, max_iter=1000,
+                               random_state=42, solver='lbfgs'))])</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.65</v>
+        <v>0.7004545454545454</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>{'selector': None, 'scaler': None, 'model__solver': 'sgd', 'model__learning_rate_init': 0.0001, 'model__hidden_layer_sizes': (10,), 'model__alpha': 0.0001, 'model__activation': 'relu'}</t>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7faa00146850&gt;, 'scaler': StandardScaler(), 'model__solver': 'lbfgs', 'model__learning_rate_init': 0.01, 'model__hidden_layer_sizes': (10,), 'model__alpha': 1, 'model__activation': 'relu'}</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.6769340840966684</v>
+        <v>0.6711423221211917</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4797899267399267</v>
+        <v>0.4897046287046289</v>
       </c>
       <c r="F4" t="n">
-        <v>0.68</v>
+        <v>0.7096774193548387</v>
       </c>
       <c r="G4" t="n">
-        <v>0.680551256026774</v>
+        <v>0.6784388231901994</v>
       </c>
       <c r="H4" t="n">
-        <v>0.4754726190476191</v>
+        <v>0.4795238095238094</v>
       </c>
       <c r="I4" t="n">
-        <v>0.7083333333333334</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="J4" t="n">
-        <v>0.7335</v>
+        <v>0.7231555555555554</v>
       </c>
       <c r="K4" t="n">
-        <v>0.5417999999999999</v>
+        <v>0.5666</v>
       </c>
       <c r="L4" t="n">
-        <v>0.6538461538461539</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[0 1 0 0 1 1 1 1 1 1 1 0 1 1 1 1 1 1 1 1 0 1 1 1 0 1 0 1 0 1 0 1 1 1 0 1]</t>
+          <t>[0 1 0 0 1 1 1 1 1 1 1 0 1 1 1 1 1 1 1 1 0 1 1 1]</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>[1 1 1 0 1 0 0 1 1 0 1 1 0 1 1 1 1 0 0 0 1 0 1 1 0 1 1 1 1 1 0 1 1 1 1 0]</t>
+          <t>[0 1 1 0 0 1 0 1 1 0 0 0 0 1 1 1 1 1 1 0 0 0 1 0]</t>
         </is>
       </c>
       <c r="O4" t="n">
@@ -694,58 +693,57 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('scaler', MinMaxScaler()),
-                ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7fcae06faee0&gt;),
+          <t>Pipeline(steps=[('scaler', MinMaxScaler()), ('selector', None),
                 ('model',
-                 MLPClassifier(alpha=0.01, hidden_layer_sizes=(10,),
+                 MLPClassifier(activation='tanh', alpha=0.01,
+                               hidden_layer_sizes=(10, 10, 10),
                                learning_rate_init=0.0001, max_iter=1000,
                                random_state=42))])</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.755</v>
+        <v>0.7699999999999999</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7fcae0734220&gt;, 'scaler': MinMaxScaler(), 'model__solver': 'adam', 'model__learning_rate_init': 0.0001, 'model__hidden_layer_sizes': (10,), 'model__alpha': 0.01, 'model__activation': 'relu'}</t>
+          <t>{'selector': None, 'scaler': MinMaxScaler(), 'model__solver': 'adam', 'model__learning_rate_init': 0.0001, 'model__hidden_layer_sizes': (10, 10, 10), 'model__alpha': 0.01, 'model__activation': 'tanh'}</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.7112325252069099</v>
+        <v>0.7200633141986819</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5265204184704185</v>
+        <v>0.5592921911421911</v>
       </c>
       <c r="F5" t="n">
-        <v>0.5161290322580644</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="G5" t="n">
-        <v>0.6841738384872561</v>
+        <v>0.6923024139416202</v>
       </c>
       <c r="H5" t="n">
-        <v>0.4935003968253968</v>
+        <v>0.5351384920634922</v>
       </c>
       <c r="I5" t="n">
-        <v>0.8888888888888888</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="J5" t="n">
-        <v>0.7820238095238095</v>
+        <v>0.7887959183673469</v>
       </c>
       <c r="K5" t="n">
-        <v>0.6136</v>
+        <v>0.6288333333333332</v>
       </c>
       <c r="L5" t="n">
-        <v>0.3636363636363636</v>
+        <v>1</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[0 1 1 0 0 1 0 0 0 0 1 1 1 0 0 1 1 0 1 1 1 1 1 1 1 1 0 0 1 0 1 1 1 1 1 0]</t>
+          <t>[0 1 1 0 0 1 0 0 0 0 1 1 1 0 0 1 1 0 1 1 1 1 1 1]</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>[0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 1 1 0 1 0 0 1 0 0 0 1 0 1 0 0]</t>
+          <t>[1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1]</t>
         </is>
       </c>
       <c r="O5" t="n">
@@ -755,59 +753,60 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('scaler', None),
+          <t>Pipeline(steps=[('scaler', StandardScaler()),
                 ('selector',
-                 SelectFromModel(estimator=ExtraTreesClassifier(random_state=42))),
+                 SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1',
+                                                     random_state=42))),
                 ('model',
-                 MLPClassifier(activation='tanh', alpha=1,
-                               hidden_layer_sizes=(10, 10, 10),
-                               learning_rate_init=0.01, max_iter=1000,
+                 MLPClassifier(activation='tanh', alpha=0.01,
+                               hidden_layer_sizes=(5, 10, 5),
+                               learning_rate_init=1, max_iter=1000,
                                random_state=42))])</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6905555555555555</v>
+        <v>0.7592424242424242</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>{'selector': SelectFromModel(estimator=ExtraTreesClassifier(random_state=42)), 'scaler': None, 'model__solver': 'adam', 'model__learning_rate_init': 0.01, 'model__hidden_layer_sizes': (10, 10, 10), 'model__alpha': 1, 'model__activation': 'tanh'}</t>
+          <t>{'selector': SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1', random_state=42)), 'scaler': StandardScaler(), 'model__solver': 'adam', 'model__learning_rate_init': 1, 'model__hidden_layer_sizes': (5, 10, 5), 'model__alpha': 0.01, 'model__activation': 'tanh'}</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.7377696114163557</v>
+        <v>0.7389922420838458</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5319615662115662</v>
+        <v>0.5598278332778333</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5</v>
       </c>
       <c r="G6" t="n">
-        <v>0.7223902597849026</v>
+        <v>0.7238216224078028</v>
       </c>
       <c r="H6" t="n">
-        <v>0.4863769841269841</v>
+        <v>0.5380253968253969</v>
       </c>
       <c r="I6" t="n">
-        <v>0.5555555555555556</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7934545454545452</v>
+        <v>0.7931153846153847</v>
       </c>
       <c r="K6" t="n">
-        <v>0.6282</v>
+        <v>0.6273333333333334</v>
       </c>
       <c r="L6" t="n">
-        <v>1</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[1 0 1 1 0 0 0 0 1 0 1 1 0 1 1 0 1 0 0 0 0 0 1 1 1 0 1 0 1 1 1 1 1 1 1 0]</t>
+          <t>[1 0 1 1 0 0 0 0 1 0 1 1 0 1 1 0 1 0 0 0 0 0 1 1]</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>[1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1]</t>
+          <t>[1 1 1 0 1 1 1 1 0 0 0 1 1 1 1 0 0 1 0 1 1 1 1 1]</t>
         </is>
       </c>
       <c r="O6" t="n">
